--- a/test.xlsx
+++ b/test.xlsx
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,7 +385,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>535.482666</v>
+        <v>-366.705017</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -393,7 +393,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>56.704712</v>
+        <v>-522.040222</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -401,7 +401,15 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-54.899292</v>
+        <v>-373.21637</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-201.431152</v>
       </c>
     </row>
   </sheetData>
